--- a/chats/5216183171185@c.us.xlsx
+++ b/chats/5216183171185@c.us.xlsx
@@ -11,7 +11,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="145" uniqueCount="39">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="181" uniqueCount="52">
   <si>
     <t>Fecha</t>
   </si>
@@ -128,6 +128,45 @@
   </si>
   <si>
     <t>08-12-2021 04:27</t>
+  </si>
+  <si>
+    <t>13-12-2021 10:35</t>
+  </si>
+  <si>
+    <t>13-12-2021 10:36</t>
+  </si>
+  <si>
+    <t>STEP_2_1</t>
+  </si>
+  <si>
+    <t>C1</t>
+  </si>
+  <si>
+    <t>C3</t>
+  </si>
+  <si>
+    <t>13-12-2021 10:42</t>
+  </si>
+  <si>
+    <t>P1</t>
+  </si>
+  <si>
+    <t>P2</t>
+  </si>
+  <si>
+    <t>03</t>
+  </si>
+  <si>
+    <t>P3</t>
+  </si>
+  <si>
+    <t>A4</t>
+  </si>
+  <si>
+    <t>A1</t>
+  </si>
+  <si>
+    <t>J1</t>
   </si>
 </sst>
 </file>
@@ -504,7 +543,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:C65"/>
+  <dimension ref="A1:C82"/>
   <sheetFormatPr defaultRowHeight="15" outlineLevelRow="0" outlineLevelCol="0" x14ac:dyDescent="55"/>
   <sheetData>
     <row r="1" spans="1:3" x14ac:dyDescent="0.25">
@@ -1072,6 +1111,148 @@
         <v>16</v>
       </c>
     </row>
+    <row r="66" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A66" t="s">
+        <v>39</v>
+      </c>
+      <c r="B66" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="67" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A67" t="s">
+        <v>40</v>
+      </c>
+      <c r="B67" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="68" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A68" t="s">
+        <v>40</v>
+      </c>
+      <c r="B68" t="s">
+        <v>25</v>
+      </c>
+      <c r="C68" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="69" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A69" t="s">
+        <v>40</v>
+      </c>
+      <c r="B69" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="70" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A70" t="s">
+        <v>40</v>
+      </c>
+      <c r="B70" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="71" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A71" t="s">
+        <v>40</v>
+      </c>
+      <c r="B71" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="72" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A72" t="s">
+        <v>44</v>
+      </c>
+      <c r="B72" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="73" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A73" t="s">
+        <v>44</v>
+      </c>
+      <c r="B73" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="74" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A74" t="s">
+        <v>44</v>
+      </c>
+      <c r="B74" t="s">
+        <v>25</v>
+      </c>
+      <c r="C74" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="75" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A75" t="s">
+        <v>44</v>
+      </c>
+      <c r="B75" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="76" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A76" t="s">
+        <v>44</v>
+      </c>
+      <c r="B76" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="77" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A77" t="s">
+        <v>44</v>
+      </c>
+      <c r="B77" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="78" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A78" t="s">
+        <v>44</v>
+      </c>
+      <c r="B78" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="79" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A79" t="s">
+        <v>44</v>
+      </c>
+      <c r="B79" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="80" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A80" t="s">
+        <v>44</v>
+      </c>
+      <c r="B80" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="81" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A81" t="s">
+        <v>44</v>
+      </c>
+      <c r="B81" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="82" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A82" t="s">
+        <v>44</v>
+      </c>
+      <c r="B82" t="s">
+        <v>51</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" horizontalDpi="4294967295" verticalDpi="4294967295" scale="100" fitToWidth="1" fitToHeight="1" firstPageNumber="1" useFirstPageNumber="1" copies="1"/>

--- a/chats/5216183171185@c.us.xlsx
+++ b/chats/5216183171185@c.us.xlsx
@@ -11,7 +11,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="236" uniqueCount="61">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="288" uniqueCount="68">
   <si>
     <t>Fecha</t>
   </si>
@@ -194,6 +194,27 @@
   </si>
   <si>
     <t>P5</t>
+  </si>
+  <si>
+    <t>14-12-2021 11:16</t>
+  </si>
+  <si>
+    <t>14-12-2021 11:17</t>
+  </si>
+  <si>
+    <t>14-12-2021 11:19</t>
+  </si>
+  <si>
+    <t>14-12-2021 11:28</t>
+  </si>
+  <si>
+    <t>14-12-2021 11:49</t>
+  </si>
+  <si>
+    <t>14-12-2021 11:53</t>
+  </si>
+  <si>
+    <t>14-12-2021 11:54</t>
   </si>
 </sst>
 </file>
@@ -570,7 +591,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:C108"/>
+  <dimension ref="A1:C132"/>
   <sheetFormatPr defaultRowHeight="15" outlineLevelRow="0" outlineLevelCol="0" x14ac:dyDescent="55"/>
   <sheetData>
     <row r="1" spans="1:3" x14ac:dyDescent="0.25">
@@ -1497,6 +1518,210 @@
         <v>60</v>
       </c>
     </row>
+    <row r="109" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A109" t="s">
+        <v>61</v>
+      </c>
+      <c r="B109" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="110" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A110" t="s">
+        <v>61</v>
+      </c>
+      <c r="B110" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="111" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A111" t="s">
+        <v>61</v>
+      </c>
+      <c r="B111" t="s">
+        <v>25</v>
+      </c>
+      <c r="C111" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="112" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A112" t="s">
+        <v>62</v>
+      </c>
+      <c r="B112" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="113" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A113" t="s">
+        <v>62</v>
+      </c>
+      <c r="B113" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="114" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A114" t="s">
+        <v>62</v>
+      </c>
+      <c r="B114" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="115" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A115" t="s">
+        <v>63</v>
+      </c>
+      <c r="B115" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="116" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A116" t="s">
+        <v>63</v>
+      </c>
+      <c r="B116" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="117" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A117" t="s">
+        <v>63</v>
+      </c>
+      <c r="B117" t="s">
+        <v>25</v>
+      </c>
+      <c r="C117" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="118" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A118" t="s">
+        <v>63</v>
+      </c>
+      <c r="B118" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="119" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A119" t="s">
+        <v>63</v>
+      </c>
+      <c r="B119" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="120" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A120" t="s">
+        <v>64</v>
+      </c>
+      <c r="B120" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="121" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A121" t="s">
+        <v>64</v>
+      </c>
+      <c r="B121" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="122" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A122" t="s">
+        <v>65</v>
+      </c>
+      <c r="B122" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="123" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A123" t="s">
+        <v>66</v>
+      </c>
+      <c r="B123" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="124" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A124" t="s">
+        <v>66</v>
+      </c>
+      <c r="B124" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="125" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A125" t="s">
+        <v>66</v>
+      </c>
+      <c r="B125" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="126" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A126" t="s">
+        <v>66</v>
+      </c>
+      <c r="B126" t="s">
+        <v>25</v>
+      </c>
+      <c r="C126" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="127" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A127" t="s">
+        <v>66</v>
+      </c>
+      <c r="B127" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="128" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A128" t="s">
+        <v>67</v>
+      </c>
+      <c r="B128" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="129" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A129" t="s">
+        <v>67</v>
+      </c>
+      <c r="B129" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="130" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A130" t="s">
+        <v>67</v>
+      </c>
+      <c r="B130" t="s">
+        <v>25</v>
+      </c>
+      <c r="C130" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="131" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A131" t="s">
+        <v>67</v>
+      </c>
+      <c r="B131" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="132" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A132" t="s">
+        <v>67</v>
+      </c>
+      <c r="B132" t="s">
+        <v>41</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" horizontalDpi="4294967295" verticalDpi="4294967295" scale="100" fitToWidth="1" fitToHeight="1" firstPageNumber="1" useFirstPageNumber="1" copies="1"/>

--- a/chats/5216183171185@c.us.xlsx
+++ b/chats/5216183171185@c.us.xlsx
@@ -11,7 +11,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="181" uniqueCount="52">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="161" uniqueCount="64">
   <si>
     <t>Fecha</t>
   </si>
@@ -22,151 +22,187 @@
     <t>Paso</t>
   </si>
   <si>
-    <t>07-12-2021 11:54</t>
-  </si>
-  <si>
-    <t>Turno</t>
+    <t>05-01-2022 11:52</t>
+  </si>
+  <si>
+    <t>Hola</t>
   </si>
   <si>
     <t/>
   </si>
   <si>
-    <t>07-12-2021 11:55</t>
-  </si>
-  <si>
-    <t>TURNOS</t>
-  </si>
-  <si>
-    <t>Hola</t>
-  </si>
-  <si>
-    <t>07-12-2021 11:56</t>
-  </si>
-  <si>
-    <t>07-12-2021 11:57</t>
-  </si>
-  <si>
-    <t>08-12-2021 12:00</t>
-  </si>
-  <si>
-    <t>08-12-2021 12:01</t>
-  </si>
-  <si>
-    <t>08-12-2021 12:07</t>
-  </si>
-  <si>
-    <t>turno</t>
-  </si>
-  <si>
-    <t>hola</t>
+    <t>Menu</t>
+  </si>
+  <si>
+    <t>menu</t>
+  </si>
+  <si>
+    <t>STEP_2_1</t>
+  </si>
+  <si>
+    <t>05-01-2022 11:53</t>
   </si>
   <si>
     <t>1</t>
   </si>
   <si>
-    <t>08-12-2021 12:26</t>
-  </si>
-  <si>
-    <t>Turnos</t>
-  </si>
-  <si>
-    <t>08-12-2021 12:27</t>
-  </si>
-  <si>
-    <t>08-12-2021 12:31</t>
-  </si>
-  <si>
-    <t>08-12-2021 12:44</t>
-  </si>
-  <si>
-    <t>Menu</t>
-  </si>
-  <si>
-    <t>08-12-2021 12:45</t>
-  </si>
-  <si>
-    <t>08-12-2021 12:47</t>
-  </si>
-  <si>
-    <t>menu</t>
-  </si>
-  <si>
-    <t>STEP_ERROR</t>
-  </si>
-  <si>
-    <t>08-12-2021 12:49</t>
-  </si>
-  <si>
-    <t>08-12-2021 01:34</t>
+    <t>05-01-2022 11:54</t>
+  </si>
+  <si>
+    <t>05-01-2022 11:56</t>
+  </si>
+  <si>
+    <t>J2</t>
   </si>
   <si>
     <t>2</t>
   </si>
   <si>
+    <t>C2</t>
+  </si>
+  <si>
+    <t>05-01-2022 11:58</t>
+  </si>
+  <si>
+    <t>05-01-2022 11:59</t>
+  </si>
+  <si>
     <t>3</t>
   </si>
   <si>
-    <t>4</t>
-  </si>
-  <si>
-    <t>5</t>
-  </si>
-  <si>
-    <t>08-12-2021 01:35</t>
-  </si>
-  <si>
-    <t>Juzgados</t>
-  </si>
-  <si>
-    <t>juzgados</t>
-  </si>
-  <si>
-    <t>08-12-2021 03:58</t>
-  </si>
-  <si>
-    <t>08-12-2021 04:26</t>
-  </si>
-  <si>
-    <t>08-12-2021 04:27</t>
-  </si>
-  <si>
-    <t>13-12-2021 10:35</t>
-  </si>
-  <si>
-    <t>13-12-2021 10:36</t>
-  </si>
-  <si>
-    <t>STEP_2_1</t>
+    <t>A3</t>
+  </si>
+  <si>
+    <t>06-01-2022 12:00</t>
+  </si>
+  <si>
+    <t>A4</t>
+  </si>
+  <si>
+    <t>06-01-2022 12:01</t>
   </si>
   <si>
     <t>C1</t>
   </si>
   <si>
+    <t>06-01-2022 12:03</t>
+  </si>
+  <si>
+    <t>Me u</t>
+  </si>
+  <si>
+    <t>06-01-2022 12:05</t>
+  </si>
+  <si>
+    <t>06-01-2022 12:18</t>
+  </si>
+  <si>
+    <t>06-01-2022 12:20</t>
+  </si>
+  <si>
+    <t>06-01-2022 12:21</t>
+  </si>
+  <si>
     <t>C3</t>
   </si>
   <si>
-    <t>13-12-2021 10:42</t>
+    <t>06-01-2022 12:32</t>
+  </si>
+  <si>
+    <t>06-01-2022 12:33</t>
+  </si>
+  <si>
+    <t>06-01-2022 12:35</t>
+  </si>
+  <si>
+    <t>P2</t>
+  </si>
+  <si>
+    <t>06-01-2022 12:37</t>
+  </si>
+  <si>
+    <t>06-01-2022 12:39</t>
+  </si>
+  <si>
+    <t>06-01-2022 12:40</t>
+  </si>
+  <si>
+    <t>C4</t>
   </si>
   <si>
     <t>P1</t>
   </si>
   <si>
-    <t>P2</t>
-  </si>
-  <si>
-    <t>03</t>
-  </si>
-  <si>
-    <t>P3</t>
-  </si>
-  <si>
-    <t>A4</t>
-  </si>
-  <si>
-    <t>A1</t>
+    <t>U1</t>
+  </si>
+  <si>
+    <t>06-01-2022 12:41</t>
   </si>
   <si>
     <t>J1</t>
+  </si>
+  <si>
+    <t>06-01-2022 12:42</t>
+  </si>
+  <si>
+    <t>06-01-2022 12:43</t>
+  </si>
+  <si>
+    <t>06-01-2022 12:44</t>
+  </si>
+  <si>
+    <t>C5</t>
+  </si>
+  <si>
+    <t>06-01-2022 12:46</t>
+  </si>
+  <si>
+    <t>06-01-2022 12:47</t>
+  </si>
+  <si>
+    <t>06-01-2022 12:51</t>
+  </si>
+  <si>
+    <t>06-01-2022 12:53</t>
+  </si>
+  <si>
+    <t>A5</t>
+  </si>
+  <si>
+    <t>06-01-2022 01:44</t>
+  </si>
+  <si>
+    <t>06-01-2022 01:50</t>
+  </si>
+  <si>
+    <t>06-01-2022 01:52</t>
+  </si>
+  <si>
+    <t>06-01-2022 02:03</t>
+  </si>
+  <si>
+    <t>06-01-2022 02:05</t>
+  </si>
+  <si>
+    <t>J4</t>
+  </si>
+  <si>
+    <t>06-01-2022 02:07</t>
+  </si>
+  <si>
+    <t>06-01-2022 02:09</t>
+  </si>
+  <si>
+    <t>06-01-2022 02:11</t>
+  </si>
+  <si>
+    <t>06-01-2022 02:12</t>
+  </si>
+  <si>
+    <t>06-01-2022 02:13</t>
+  </si>
+  <si>
+    <t>06-01-2022 02:14</t>
   </si>
 </sst>
 </file>
@@ -543,7 +579,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:C82"/>
+  <dimension ref="A1:C76"/>
   <sheetFormatPr defaultRowHeight="15" outlineLevelRow="0" outlineLevelCol="0" x14ac:dyDescent="55"/>
   <sheetData>
     <row r="1" spans="1:3" x14ac:dyDescent="0.25">
@@ -570,66 +606,72 @@
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
+        <v>3</v>
+      </c>
+      <c r="B3" t="s">
         <v>6</v>
       </c>
-      <c r="B3" t="s">
+    </row>
+    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A4" t="s">
+        <v>3</v>
+      </c>
+      <c r="B4" t="s">
         <v>7</v>
       </c>
-    </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A4" t="s">
-        <v>6</v>
-      </c>
-      <c r="B4" t="s">
+      <c r="C4" t="s">
         <v>8</v>
       </c>
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
-        <v>6</v>
+        <v>9</v>
       </c>
       <c r="B5" t="s">
-        <v>8</v>
+        <v>10</v>
       </c>
     </row>
     <row r="6" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="B6" t="s">
-        <v>8</v>
+        <v>4</v>
       </c>
     </row>
     <row r="7" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="B7" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="8" spans="1:2" x14ac:dyDescent="0.25">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="8" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="B8" t="s">
+        <v>7</v>
+      </c>
+      <c r="C8" t="s">
         <v>8</v>
       </c>
     </row>
     <row r="9" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
+        <v>11</v>
+      </c>
+      <c r="B9" t="s">
         <v>10</v>
-      </c>
-      <c r="B9" t="s">
-        <v>4</v>
       </c>
     </row>
     <row r="10" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="B10" t="s">
-        <v>8</v>
+        <v>4</v>
       </c>
     </row>
     <row r="11" spans="1:2" x14ac:dyDescent="0.25">
@@ -637,14 +679,17 @@
         <v>12</v>
       </c>
       <c r="B11" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="12" spans="1:2" x14ac:dyDescent="0.25">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="12" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
         <v>12</v>
       </c>
       <c r="B12" t="s">
+        <v>7</v>
+      </c>
+      <c r="C12" t="s">
         <v>8</v>
       </c>
     </row>
@@ -653,55 +698,58 @@
         <v>12</v>
       </c>
       <c r="B13" t="s">
-        <v>4</v>
+        <v>10</v>
       </c>
     </row>
     <row r="14" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
+        <v>12</v>
+      </c>
+      <c r="B14" t="s">
         <v>13</v>
-      </c>
-      <c r="B14" t="s">
-        <v>8</v>
       </c>
     </row>
     <row r="15" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="B15" t="s">
-        <v>4</v>
+        <v>14</v>
       </c>
     </row>
     <row r="16" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="B16" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
     </row>
     <row r="17" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
-        <v>13</v>
+        <v>16</v>
       </c>
       <c r="B17" t="s">
-        <v>15</v>
+        <v>4</v>
       </c>
     </row>
     <row r="18" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
-        <v>13</v>
+        <v>16</v>
       </c>
       <c r="B18" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="19" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A19" t="s">
         <v>16</v>
       </c>
-    </row>
-    <row r="19" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A19" t="s">
-        <v>17</v>
-      </c>
       <c r="B19" t="s">
-        <v>15</v>
+        <v>7</v>
+      </c>
+      <c r="C19" t="s">
+        <v>8</v>
       </c>
     </row>
     <row r="20" spans="1:2" x14ac:dyDescent="0.25">
@@ -709,7 +757,7 @@
         <v>17</v>
       </c>
       <c r="B20" t="s">
-        <v>4</v>
+        <v>18</v>
       </c>
     </row>
     <row r="21" spans="1:2" x14ac:dyDescent="0.25">
@@ -717,71 +765,74 @@
         <v>17</v>
       </c>
       <c r="B21" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
     </row>
     <row r="22" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="B22" t="s">
-        <v>4</v>
+        <v>21</v>
       </c>
     </row>
     <row r="23" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="B23" t="s">
-        <v>8</v>
+        <v>14</v>
       </c>
     </row>
     <row r="24" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="B24" t="s">
-        <v>4</v>
+        <v>23</v>
       </c>
     </row>
     <row r="25" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
-        <v>20</v>
+        <v>24</v>
       </c>
       <c r="B25" t="s">
-        <v>16</v>
+        <v>4</v>
       </c>
     </row>
     <row r="26" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A26" t="s">
-        <v>21</v>
+        <v>24</v>
       </c>
       <c r="B26" t="s">
-        <v>8</v>
+        <v>25</v>
       </c>
     </row>
     <row r="27" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A27" t="s">
-        <v>21</v>
+        <v>24</v>
       </c>
       <c r="B27" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="28" spans="1:2" x14ac:dyDescent="0.25">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="28" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A28" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="B28" t="s">
+        <v>7</v>
+      </c>
+      <c r="C28" t="s">
         <v>8</v>
       </c>
     </row>
     <row r="29" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A29" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="B29" t="s">
-        <v>22</v>
+        <v>14</v>
       </c>
     </row>
     <row r="30" spans="1:2" x14ac:dyDescent="0.25">
@@ -789,41 +840,41 @@
         <v>24</v>
       </c>
       <c r="B30" t="s">
-        <v>8</v>
+        <v>23</v>
       </c>
     </row>
     <row r="31" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A31" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="B31" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="32" spans="1:3" x14ac:dyDescent="0.25">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="32" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A32" t="s">
-        <v>24</v>
+        <v>27</v>
       </c>
       <c r="B32" t="s">
-        <v>25</v>
-      </c>
-      <c r="C32" t="s">
-        <v>26</v>
+        <v>4</v>
       </c>
     </row>
     <row r="33" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A33" t="s">
-        <v>24</v>
+        <v>27</v>
       </c>
       <c r="B33" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="34" spans="1:2" x14ac:dyDescent="0.25">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="34" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A34" t="s">
         <v>27</v>
       </c>
       <c r="B34" t="s">
+        <v>7</v>
+      </c>
+      <c r="C34" t="s">
         <v>8</v>
       </c>
     </row>
@@ -832,425 +883,338 @@
         <v>27</v>
       </c>
       <c r="B35" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="36" spans="1:3" x14ac:dyDescent="0.25">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="36" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A36" t="s">
         <v>27</v>
       </c>
       <c r="B36" t="s">
-        <v>25</v>
-      </c>
-      <c r="C36" t="s">
-        <v>26</v>
+        <v>23</v>
       </c>
     </row>
     <row r="37" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A37" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="B37" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
     </row>
     <row r="38" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A38" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="B38" t="s">
-        <v>8</v>
+        <v>30</v>
       </c>
     </row>
     <row r="39" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A39" t="s">
-        <v>28</v>
+        <v>31</v>
       </c>
       <c r="B39" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="40" spans="1:3" x14ac:dyDescent="0.25">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="40" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A40" t="s">
-        <v>28</v>
+        <v>32</v>
       </c>
       <c r="B40" t="s">
-        <v>25</v>
-      </c>
-      <c r="C40" t="s">
-        <v>26</v>
+        <v>30</v>
       </c>
     </row>
     <row r="41" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A41" t="s">
-        <v>28</v>
+        <v>33</v>
       </c>
       <c r="B41" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="42" spans="1:3" x14ac:dyDescent="0.25">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="42" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A42" t="s">
-        <v>28</v>
+        <v>35</v>
       </c>
       <c r="B42" t="s">
-        <v>16</v>
-      </c>
-      <c r="C42" t="s">
-        <v>26</v>
+        <v>15</v>
       </c>
     </row>
     <row r="43" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A43" t="s">
-        <v>28</v>
+        <v>35</v>
       </c>
       <c r="B43" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="44" spans="1:3" x14ac:dyDescent="0.25">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="44" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A44" t="s">
-        <v>28</v>
+        <v>36</v>
       </c>
       <c r="B44" t="s">
-        <v>29</v>
-      </c>
-      <c r="C44" t="s">
-        <v>26</v>
+        <v>30</v>
       </c>
     </row>
     <row r="45" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A45" t="s">
-        <v>28</v>
+        <v>37</v>
       </c>
       <c r="B45" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="46" spans="1:3" x14ac:dyDescent="0.25">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="46" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A46" t="s">
-        <v>28</v>
+        <v>37</v>
       </c>
       <c r="B46" t="s">
-        <v>30</v>
-      </c>
-      <c r="C46" t="s">
-        <v>26</v>
+        <v>38</v>
       </c>
     </row>
     <row r="47" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A47" t="s">
-        <v>28</v>
+        <v>37</v>
       </c>
       <c r="B47" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="48" spans="1:3" x14ac:dyDescent="0.25">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="48" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A48" t="s">
-        <v>28</v>
+        <v>37</v>
       </c>
       <c r="B48" t="s">
-        <v>31</v>
-      </c>
-      <c r="C48" t="s">
-        <v>26</v>
+        <v>40</v>
       </c>
     </row>
     <row r="49" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A49" t="s">
-        <v>28</v>
+        <v>41</v>
       </c>
       <c r="B49" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="50" spans="1:3" x14ac:dyDescent="0.25">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="50" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A50" t="s">
-        <v>28</v>
+        <v>41</v>
       </c>
       <c r="B50" t="s">
-        <v>32</v>
-      </c>
-      <c r="C50" t="s">
-        <v>26</v>
+        <v>13</v>
       </c>
     </row>
     <row r="51" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A51" t="s">
-        <v>33</v>
+        <v>41</v>
       </c>
       <c r="B51" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="52" spans="1:3" x14ac:dyDescent="0.25">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="52" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A52" t="s">
-        <v>33</v>
+        <v>43</v>
       </c>
       <c r="B52" t="s">
-        <v>35</v>
-      </c>
-      <c r="C52" t="s">
-        <v>26</v>
+        <v>30</v>
       </c>
     </row>
     <row r="53" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A53" t="s">
-        <v>36</v>
+        <v>44</v>
       </c>
       <c r="B53" t="s">
-        <v>8</v>
+        <v>38</v>
       </c>
     </row>
     <row r="54" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A54" t="s">
-        <v>36</v>
+        <v>45</v>
       </c>
       <c r="B54" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="55" spans="1:3" x14ac:dyDescent="0.25">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="55" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A55" t="s">
-        <v>36</v>
+        <v>47</v>
       </c>
       <c r="B55" t="s">
-        <v>25</v>
-      </c>
-      <c r="C55" t="s">
-        <v>26</v>
+        <v>15</v>
       </c>
     </row>
     <row r="56" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A56" t="s">
-        <v>36</v>
+        <v>48</v>
       </c>
       <c r="B56" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="57" spans="1:3" x14ac:dyDescent="0.25">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="57" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A57" t="s">
-        <v>36</v>
+        <v>49</v>
       </c>
       <c r="B57" t="s">
-        <v>16</v>
-      </c>
-      <c r="C57" t="s">
-        <v>26</v>
+        <v>30</v>
       </c>
     </row>
     <row r="58" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A58" t="s">
-        <v>37</v>
+        <v>49</v>
       </c>
       <c r="B58" t="s">
-        <v>8</v>
+        <v>39</v>
       </c>
     </row>
     <row r="59" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A59" t="s">
-        <v>37</v>
+        <v>49</v>
       </c>
       <c r="B59" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="60" spans="1:3" x14ac:dyDescent="0.25">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="60" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A60" t="s">
-        <v>37</v>
+        <v>50</v>
       </c>
       <c r="B60" t="s">
-        <v>25</v>
-      </c>
-      <c r="C60" t="s">
-        <v>26</v>
+        <v>51</v>
       </c>
     </row>
     <row r="61" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A61" t="s">
-        <v>37</v>
+        <v>52</v>
       </c>
       <c r="B61" t="s">
-        <v>16</v>
+        <v>19</v>
       </c>
     </row>
     <row r="62" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A62" t="s">
-        <v>38</v>
+        <v>53</v>
       </c>
       <c r="B62" t="s">
-        <v>8</v>
+        <v>19</v>
       </c>
     </row>
     <row r="63" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A63" t="s">
-        <v>38</v>
+        <v>54</v>
       </c>
       <c r="B63" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="64" spans="1:3" x14ac:dyDescent="0.25">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="64" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A64" t="s">
-        <v>38</v>
+        <v>55</v>
       </c>
       <c r="B64" t="s">
-        <v>25</v>
-      </c>
-      <c r="C64" t="s">
-        <v>26</v>
+        <v>4</v>
       </c>
     </row>
     <row r="65" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A65" t="s">
-        <v>38</v>
+        <v>55</v>
       </c>
       <c r="B65" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="66" spans="1:2" x14ac:dyDescent="0.25">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="66" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A66" t="s">
-        <v>39</v>
+        <v>55</v>
       </c>
       <c r="B66" t="s">
+        <v>7</v>
+      </c>
+      <c r="C66" t="s">
         <v>8</v>
       </c>
     </row>
     <row r="67" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A67" t="s">
-        <v>40</v>
+        <v>55</v>
       </c>
       <c r="B67" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="68" spans="1:3" x14ac:dyDescent="0.25">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="68" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A68" t="s">
-        <v>40</v>
+        <v>55</v>
       </c>
       <c r="B68" t="s">
-        <v>25</v>
-      </c>
-      <c r="C68" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
     </row>
     <row r="69" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A69" t="s">
-        <v>40</v>
+        <v>56</v>
       </c>
       <c r="B69" t="s">
-        <v>29</v>
+        <v>57</v>
       </c>
     </row>
     <row r="70" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A70" t="s">
-        <v>40</v>
+        <v>58</v>
       </c>
       <c r="B70" t="s">
-        <v>42</v>
+        <v>23</v>
       </c>
     </row>
     <row r="71" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A71" t="s">
-        <v>40</v>
+        <v>59</v>
       </c>
       <c r="B71" t="s">
-        <v>43</v>
+        <v>23</v>
       </c>
     </row>
     <row r="72" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A72" t="s">
-        <v>44</v>
+        <v>60</v>
       </c>
       <c r="B72" t="s">
-        <v>8</v>
+        <v>15</v>
       </c>
     </row>
     <row r="73" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A73" t="s">
-        <v>44</v>
+        <v>61</v>
       </c>
       <c r="B73" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="74" spans="1:3" x14ac:dyDescent="0.25">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="74" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A74" t="s">
-        <v>44</v>
+        <v>62</v>
       </c>
       <c r="B74" t="s">
-        <v>25</v>
-      </c>
-      <c r="C74" t="s">
-        <v>41</v>
+        <v>30</v>
       </c>
     </row>
     <row r="75" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A75" t="s">
-        <v>44</v>
+        <v>63</v>
       </c>
       <c r="B75" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
     </row>
     <row r="76" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A76" t="s">
-        <v>44</v>
+        <v>63</v>
       </c>
       <c r="B76" t="s">
-        <v>45</v>
-      </c>
-    </row>
-    <row r="77" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A77" t="s">
-        <v>44</v>
-      </c>
-      <c r="B77" t="s">
-        <v>46</v>
-      </c>
-    </row>
-    <row r="78" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A78" t="s">
-        <v>44</v>
-      </c>
-      <c r="B78" t="s">
-        <v>47</v>
-      </c>
-    </row>
-    <row r="79" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A79" t="s">
-        <v>44</v>
-      </c>
-      <c r="B79" t="s">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="80" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A80" t="s">
-        <v>44</v>
-      </c>
-      <c r="B80" t="s">
-        <v>49</v>
-      </c>
-    </row>
-    <row r="81" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A81" t="s">
-        <v>44</v>
-      </c>
-      <c r="B81" t="s">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="82" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A82" t="s">
-        <v>44</v>
-      </c>
-      <c r="B82" t="s">
-        <v>51</v>
+        <v>30</v>
       </c>
     </row>
   </sheetData>
